--- a/proyecto_labo2/Excel Rentas.xlsx
+++ b/proyecto_labo2/Excel Rentas.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millanes\Desktop\Proyecto LABO\proyectoLabo_2\proyecto_labo2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5F78EF-019D-4BC4-A329-1D0785F15889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -151,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -276,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -453,18 +447,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,7 +489,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -512,7 +506,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -529,7 +523,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B4">
         <v>66</v>
@@ -546,7 +540,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3805</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>69</v>
@@ -563,7 +557,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -580,7 +574,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -597,7 +591,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>66</v>
@@ -614,7 +608,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B10">
         <v>17</v>
@@ -648,7 +642,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>77</v>
@@ -665,7 +659,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B12">
         <v>31</v>
@@ -682,7 +676,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B13">
         <v>67</v>
@@ -699,7 +693,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -716,7 +710,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3805</v>
+        <v>1816</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -733,7 +727,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3871</v>
+        <v>4032</v>
       </c>
       <c r="B16">
         <v>27</v>
@@ -750,7 +744,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>71</v>
@@ -767,7 +761,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -784,7 +778,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3871</v>
+        <v>4032</v>
       </c>
       <c r="B19">
         <v>78</v>
@@ -801,7 +795,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7341</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -818,7 +812,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7820</v>
+        <v>1816</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -835,7 +829,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B22">
         <v>64</v>
@@ -852,7 +846,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7341</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -869,7 +863,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -886,7 +880,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3805</v>
+        <v>4032</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -903,7 +897,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3871</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>54</v>
@@ -920,7 +914,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7820</v>
+        <v>1816</v>
       </c>
       <c r="B27">
         <v>21</v>
@@ -937,7 +931,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -954,7 +948,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3871</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -971,7 +965,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B30">
         <v>34</v>
@@ -988,7 +982,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B31">
         <v>53</v>
@@ -1005,7 +999,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B32">
         <v>54</v>
@@ -1022,7 +1016,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B33">
         <v>74</v>
@@ -1039,7 +1033,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B34">
         <v>21</v>
@@ -1056,7 +1050,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>3805</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1073,7 +1067,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B36">
         <v>18</v>
@@ -1090,7 +1084,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B37">
         <v>34</v>
@@ -1107,7 +1101,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -1124,7 +1118,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -1141,7 +1135,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B40">
         <v>64</v>
@@ -1158,7 +1152,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>75</v>
@@ -1175,7 +1169,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -1192,7 +1186,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B43">
         <v>18</v>
@@ -1209,7 +1203,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>46</v>
@@ -1226,7 +1220,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>3805</v>
+        <v>1816</v>
       </c>
       <c r="B45">
         <v>47</v>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3871</v>
+        <v>4032</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1260,7 +1254,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>42</v>
@@ -1277,7 +1271,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B48">
         <v>19</v>
@@ -1294,7 +1288,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>3871</v>
+        <v>4032</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>7341</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>67</v>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>7820</v>
+        <v>1816</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -1345,7 +1339,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B52">
         <v>39</v>
@@ -1362,7 +1356,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7341</v>
+        <v>84</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -1379,7 +1373,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B54">
         <v>13</v>
@@ -1396,7 +1390,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>3805</v>
+        <v>4032</v>
       </c>
       <c r="B55">
         <v>37</v>
@@ -1413,7 +1407,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>3871</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <v>72</v>
@@ -1430,7 +1424,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>7820</v>
+        <v>1816</v>
       </c>
       <c r="B57">
         <v>74</v>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B58">
         <v>31</v>
@@ -1464,7 +1458,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3871</v>
+        <v>84</v>
       </c>
       <c r="B59">
         <v>76</v>
@@ -1481,7 +1475,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B60">
         <v>61</v>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B61">
         <v>67</v>
@@ -1515,7 +1509,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>40</v>
@@ -1532,7 +1526,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B63">
         <v>49</v>
@@ -1549,7 +1543,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B64">
         <v>65</v>
@@ -1566,7 +1560,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3805</v>
+        <v>84</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -1583,7 +1577,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B66">
         <v>66</v>
@@ -1600,7 +1594,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B67">
         <v>34</v>
@@ -1617,7 +1611,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>55</v>
@@ -1634,7 +1628,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B69">
         <v>63</v>
@@ -1651,7 +1645,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B70">
         <v>66</v>
@@ -1668,7 +1662,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>13</v>
@@ -1685,7 +1679,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B72">
         <v>29</v>
@@ -1702,7 +1696,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B73">
         <v>80</v>
@@ -1719,7 +1713,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>52</v>
@@ -1736,7 +1730,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>3805</v>
+        <v>1816</v>
       </c>
       <c r="B75">
         <v>28</v>
@@ -1753,7 +1747,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>3871</v>
+        <v>4032</v>
       </c>
       <c r="B76">
         <v>47</v>
@@ -1770,7 +1764,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B77">
         <v>63</v>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B78">
         <v>38</v>
@@ -1804,7 +1798,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3871</v>
+        <v>4032</v>
       </c>
       <c r="B79">
         <v>29</v>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>7341</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -1838,7 +1832,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>7820</v>
+        <v>1816</v>
       </c>
       <c r="B81">
         <v>67</v>
@@ -1855,7 +1849,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B82">
         <v>31</v>
@@ -1872,7 +1866,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>7341</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>21</v>
@@ -1889,7 +1883,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>3672</v>
+        <v>1816</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -1906,7 +1900,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>3805</v>
+        <v>4032</v>
       </c>
       <c r="B85">
         <v>70</v>
@@ -1923,7 +1917,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>3871</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>44</v>
@@ -1940,7 +1934,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>7820</v>
+        <v>1816</v>
       </c>
       <c r="B87">
         <v>30</v>
@@ -1957,7 +1951,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -1974,7 +1968,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>3871</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>45</v>
@@ -1991,7 +1985,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B90">
         <v>65</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B91">
         <v>51</v>
@@ -2025,7 +2019,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>66</v>
@@ -2042,7 +2036,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>7341</v>
+        <v>1816</v>
       </c>
       <c r="B93">
         <v>62</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>3672</v>
+        <v>4032</v>
       </c>
       <c r="B94">
         <v>38</v>
@@ -2076,7 +2070,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>3805</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>30</v>
@@ -2093,7 +2087,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B96">
         <v>20</v>
@@ -2110,7 +2104,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>7820</v>
+        <v>4032</v>
       </c>
       <c r="B97">
         <v>41</v>
@@ -2127,7 +2121,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>3672</v>
+        <v>84</v>
       </c>
       <c r="B98">
         <v>71</v>
@@ -2144,7 +2138,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>3871</v>
+        <v>1816</v>
       </c>
       <c r="B99">
         <v>71</v>
@@ -2161,7 +2155,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>7341</v>
+        <v>4032</v>
       </c>
       <c r="B100">
         <v>63</v>
@@ -2178,7 +2172,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>7820</v>
+        <v>84</v>
       </c>
       <c r="B101">
         <v>80</v>

--- a/proyecto_labo2/Excel Rentas.xlsx
+++ b/proyecto_labo2/Excel Rentas.xlsx
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>90259</v>
+        <v>90258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>20206</v>
+        <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>68363</v>
+        <v>68362</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>29812</v>
+        <v>29811</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>20949</v>
+        <v>20948</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
